--- a/Code/Results/Cases/Case_5_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.64951671119159</v>
+        <v>21.52698182277445</v>
       </c>
       <c r="C2">
-        <v>5.118049361475499</v>
+        <v>3.023968074486533</v>
       </c>
       <c r="D2">
-        <v>5.854490649929885</v>
+        <v>3.904400907923463</v>
       </c>
       <c r="E2">
-        <v>5.599481303407122</v>
+        <v>10.77759118223927</v>
       </c>
       <c r="F2">
-        <v>69.68932995434399</v>
+        <v>69.53616316249635</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.59811698900474</v>
+        <v>11.27624633093289</v>
       </c>
       <c r="K2">
-        <v>11.37586466850024</v>
+        <v>17.68412328599214</v>
       </c>
       <c r="L2">
-        <v>5.556960375580356</v>
+        <v>11.10012192625136</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.10042070674906</v>
+        <v>21.54617254014096</v>
       </c>
       <c r="C3">
-        <v>4.78821692467216</v>
+        <v>2.974724868052053</v>
       </c>
       <c r="D3">
-        <v>5.593467771376018</v>
+        <v>3.780204195458183</v>
       </c>
       <c r="E3">
-        <v>5.652045451390885</v>
+        <v>10.81090140214564</v>
       </c>
       <c r="F3">
-        <v>66.86396847469848</v>
+        <v>68.71104351508677</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.535630378148109</v>
+        <v>11.26839204990293</v>
       </c>
       <c r="K3">
-        <v>11.00172919851813</v>
+        <v>17.71754574697365</v>
       </c>
       <c r="L3">
-        <v>5.597941156622096</v>
+        <v>11.14497077895294</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77022720511226</v>
+        <v>21.56471972667961</v>
       </c>
       <c r="C4">
-        <v>4.577731787766919</v>
+        <v>2.946699213255214</v>
       </c>
       <c r="D4">
-        <v>5.428452671766907</v>
+        <v>3.700840707651576</v>
       </c>
       <c r="E4">
-        <v>5.68673983542346</v>
+        <v>10.83268889960513</v>
       </c>
       <c r="F4">
-        <v>65.09847787822213</v>
+        <v>68.20216886422506</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.49849706060491</v>
+        <v>11.26399002304225</v>
       </c>
       <c r="K4">
-        <v>10.78000130592379</v>
+        <v>17.74346305139048</v>
       </c>
       <c r="L4">
-        <v>5.627553018566511</v>
+        <v>11.17448627261451</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63757413895095</v>
+        <v>21.57397614888358</v>
       </c>
       <c r="C5">
-        <v>4.489911046446958</v>
+        <v>2.935857803289564</v>
       </c>
       <c r="D5">
-        <v>5.360019985107098</v>
+        <v>3.667736998744604</v>
       </c>
       <c r="E5">
-        <v>5.701481243362274</v>
+        <v>10.84190398344511</v>
       </c>
       <c r="F5">
-        <v>64.37178601624613</v>
+        <v>67.9943717979898</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.483662632153286</v>
+        <v>11.26230208162477</v>
       </c>
       <c r="K5">
-        <v>10.69173319355798</v>
+        <v>17.75537804697915</v>
       </c>
       <c r="L5">
-        <v>5.640699431830097</v>
+        <v>11.18701203763196</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.61566695564145</v>
+        <v>21.57561564859246</v>
       </c>
       <c r="C6">
-        <v>4.475203781922037</v>
+        <v>2.934093227693434</v>
       </c>
       <c r="D6">
-        <v>5.348585373755372</v>
+        <v>3.662194687350429</v>
       </c>
       <c r="E6">
-        <v>5.703965328227558</v>
+        <v>10.84345448954115</v>
       </c>
       <c r="F6">
-        <v>64.25069819549627</v>
+        <v>67.95984553633438</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.481217015568506</v>
+        <v>11.26202820225961</v>
       </c>
       <c r="K6">
-        <v>10.67720477606567</v>
+        <v>17.75743816180599</v>
       </c>
       <c r="L6">
-        <v>5.642946468057844</v>
+        <v>11.18912202337118</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.76843027731523</v>
+        <v>21.5648376899278</v>
       </c>
       <c r="C7">
-        <v>4.576555743202039</v>
+        <v>2.94655062724572</v>
       </c>
       <c r="D7">
-        <v>5.427534560341299</v>
+        <v>3.700397320412901</v>
       </c>
       <c r="E7">
-        <v>5.686936207594608</v>
+        <v>10.83281181386313</v>
       </c>
       <c r="F7">
-        <v>65.08870606008163</v>
+        <v>68.19936798461718</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.498295808916289</v>
+        <v>11.26396682978006</v>
       </c>
       <c r="K7">
-        <v>10.7788023323096</v>
+        <v>17.74361826586571</v>
       </c>
       <c r="L7">
-        <v>5.627725995764629</v>
+        <v>11.17465318252005</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.45883305763925</v>
+        <v>21.53219366327373</v>
       </c>
       <c r="C8">
-        <v>5.005948166088114</v>
+        <v>3.006545158122624</v>
       </c>
       <c r="D8">
-        <v>5.765475937219973</v>
+        <v>3.862233136271364</v>
       </c>
       <c r="E8">
-        <v>5.617099819045249</v>
+        <v>10.78879999072991</v>
       </c>
       <c r="F8">
-        <v>68.72177414898231</v>
+        <v>69.25221172474714</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.576307724490356</v>
+        <v>11.27345099982036</v>
       </c>
       <c r="K8">
-        <v>11.24524900765192</v>
+        <v>17.69452561918748</v>
       </c>
       <c r="L8">
-        <v>5.570142425457847</v>
+        <v>11.11517557995334</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.86211764593254</v>
+        <v>21.52191954814764</v>
       </c>
       <c r="C9">
-        <v>5.787156212187891</v>
+        <v>3.2038286111617</v>
       </c>
       <c r="D9">
-        <v>6.390713485351604</v>
+        <v>4.154229233018861</v>
       </c>
       <c r="E9">
-        <v>5.499622061415767</v>
+        <v>10.71304731982904</v>
       </c>
       <c r="F9">
-        <v>75.587267868819</v>
+        <v>71.2929266933364</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.739700435086005</v>
+        <v>11.29537928146186</v>
       </c>
       <c r="K9">
-        <v>12.22037729842652</v>
+        <v>17.64119333070693</v>
       </c>
       <c r="L9">
-        <v>5.494451627858373</v>
+        <v>11.0142114707339</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91752457196667</v>
+        <v>21.54716606557558</v>
       </c>
       <c r="C10">
-        <v>6.328006777991228</v>
+        <v>3.445411907778826</v>
       </c>
       <c r="D10">
-        <v>6.828166595193134</v>
+        <v>4.352469972263616</v>
       </c>
       <c r="E10">
-        <v>5.425613722852721</v>
+        <v>10.66377474212559</v>
       </c>
       <c r="F10">
-        <v>80.46184716421853</v>
+        <v>72.76961114860046</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.86706677453059</v>
+        <v>11.31351182643871</v>
       </c>
       <c r="K10">
-        <v>12.97072980562265</v>
+        <v>17.62832200886975</v>
       </c>
       <c r="L10">
-        <v>5.464450347110113</v>
+        <v>10.94955415014473</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.40243482330785</v>
+        <v>21.56575678325919</v>
       </c>
       <c r="C11">
-        <v>6.567944601708442</v>
+        <v>3.549603523146622</v>
       </c>
       <c r="D11">
-        <v>7.022808584834072</v>
+        <v>4.438977206417737</v>
       </c>
       <c r="E11">
-        <v>5.394731323846491</v>
+        <v>10.64273455817717</v>
       </c>
       <c r="F11">
-        <v>82.64271930576592</v>
+        <v>73.43480147946703</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.926850210799429</v>
+        <v>11.32219778337085</v>
       </c>
       <c r="K11">
-        <v>13.31925163569921</v>
+        <v>17.62819591828743</v>
       </c>
       <c r="L11">
-        <v>5.457081083017826</v>
+        <v>10.92220065632671</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58675625900411</v>
+        <v>21.57381518127434</v>
       </c>
       <c r="C12">
-        <v>6.658031839485735</v>
+        <v>3.588237162318769</v>
       </c>
       <c r="D12">
-        <v>7.095932856726576</v>
+        <v>4.471197135727511</v>
       </c>
       <c r="E12">
-        <v>5.383448667386781</v>
+        <v>10.63496396522376</v>
       </c>
       <c r="F12">
-        <v>83.46347307081128</v>
+        <v>73.68561018233571</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.949777920922202</v>
+        <v>11.32554956237788</v>
       </c>
       <c r="K12">
-        <v>13.49609611659578</v>
+        <v>17.62897218307044</v>
       </c>
       <c r="L12">
-        <v>5.455260107312307</v>
+        <v>10.91213828440935</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54702778663977</v>
+        <v>21.57203442844455</v>
       </c>
       <c r="C13">
-        <v>6.638662441932644</v>
+        <v>3.579953257183808</v>
       </c>
       <c r="D13">
-        <v>7.080209318333966</v>
+        <v>4.464282095176294</v>
       </c>
       <c r="E13">
-        <v>5.385860073526992</v>
+        <v>10.63662875728736</v>
       </c>
       <c r="F13">
-        <v>83.28693151188084</v>
+        <v>73.63164448069628</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.944826756751358</v>
+        <v>11.32482491782295</v>
       </c>
       <c r="K13">
-        <v>13.45372092699914</v>
+        <v>17.62876835703995</v>
       </c>
       <c r="L13">
-        <v>5.455608030284935</v>
+        <v>10.91429224562158</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.41758490590164</v>
+        <v>21.56639936350234</v>
       </c>
       <c r="C14">
-        <v>6.575370949997704</v>
+        <v>3.552798401456598</v>
       </c>
       <c r="D14">
-        <v>7.028835943046865</v>
+        <v>4.441638805175368</v>
       </c>
       <c r="E14">
-        <v>5.393794767878549</v>
+        <v>10.64209132546392</v>
       </c>
       <c r="F14">
-        <v>82.71034387060983</v>
+        <v>73.45545819194629</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.928730545866442</v>
+        <v>11.32247228352154</v>
       </c>
       <c r="K14">
-        <v>13.33017460603646</v>
+        <v>17.62824326911458</v>
       </c>
       <c r="L14">
-        <v>5.456911432211664</v>
+        <v>10.92136689251632</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.33838904767285</v>
+        <v>21.56308024331099</v>
       </c>
       <c r="C15">
-        <v>6.536505917371533</v>
+        <v>3.53605827679561</v>
       </c>
       <c r="D15">
-        <v>6.997293917108863</v>
+        <v>4.427698729417267</v>
       </c>
       <c r="E15">
-        <v>5.39870899723495</v>
+        <v>10.64546292259101</v>
       </c>
       <c r="F15">
-        <v>82.3565110977236</v>
+        <v>73.34739364873704</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.918909557934867</v>
+        <v>11.32103936966248</v>
       </c>
       <c r="K15">
-        <v>13.27309781525807</v>
+        <v>17.62802894155954</v>
       </c>
       <c r="L15">
-        <v>5.457838167219616</v>
+        <v>10.92573883033895</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.88593066419452</v>
+        <v>21.54609385001092</v>
       </c>
       <c r="C16">
-        <v>6.312212195979447</v>
+        <v>3.43848781927904</v>
       </c>
       <c r="D16">
-        <v>6.815362128279347</v>
+        <v>4.346741694147365</v>
       </c>
       <c r="E16">
-        <v>5.427688932625445</v>
+        <v>10.66517735624739</v>
       </c>
       <c r="F16">
-        <v>80.31859677283678</v>
+        <v>72.72599524839266</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.863198854558702</v>
+        <v>11.31295295480438</v>
       </c>
       <c r="K16">
-        <v>12.94809831310769</v>
+        <v>17.62844556435533</v>
       </c>
       <c r="L16">
-        <v>5.46506384702815</v>
+        <v>10.9513831768762</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.60958219109452</v>
+        <v>21.53749124913137</v>
       </c>
       <c r="C17">
-        <v>6.173123429739162</v>
+        <v>3.377169094787589</v>
       </c>
       <c r="D17">
-        <v>6.702664836759029</v>
+        <v>4.296128578311471</v>
       </c>
       <c r="E17">
-        <v>5.446187997505493</v>
+        <v>10.67762295251331</v>
       </c>
       <c r="F17">
-        <v>79.05910455578368</v>
+        <v>72.34300574043628</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.829510356924671</v>
+        <v>11.30810401767048</v>
       </c>
       <c r="K17">
-        <v>12.75056330321347</v>
+        <v>17.63016885814851</v>
       </c>
       <c r="L17">
-        <v>5.471150158126773</v>
+        <v>10.96764237662603</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.45108272420347</v>
+        <v>21.53321237915288</v>
       </c>
       <c r="C18">
-        <v>6.092542174663052</v>
+        <v>3.34136311495345</v>
       </c>
       <c r="D18">
-        <v>6.637430890443214</v>
+        <v>4.266672007709356</v>
       </c>
       <c r="E18">
-        <v>5.45708947628118</v>
+        <v>10.68491071602453</v>
       </c>
       <c r="F18">
-        <v>78.33121474657193</v>
+        <v>72.12211101564753</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.810305564919251</v>
+        <v>11.30535622398139</v>
       </c>
       <c r="K18">
-        <v>12.63761969518126</v>
+        <v>17.63169933834635</v>
       </c>
       <c r="L18">
-        <v>5.47523744497085</v>
+        <v>10.97718810256054</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.3974951479661</v>
+        <v>21.53187863152725</v>
       </c>
       <c r="C19">
-        <v>6.06515599203129</v>
+        <v>3.329147628686373</v>
       </c>
       <c r="D19">
-        <v>6.615271616163578</v>
+        <v>4.256639557868513</v>
       </c>
       <c r="E19">
-        <v>5.460825085086055</v>
+        <v>10.68740047215113</v>
       </c>
       <c r="F19">
-        <v>78.08416608943391</v>
+        <v>72.0472195599708</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.803832009299246</v>
+        <v>11.30443295081869</v>
       </c>
       <c r="K19">
-        <v>12.59949457441303</v>
+        <v>17.6323101391967</v>
       </c>
       <c r="L19">
-        <v>5.476720147956597</v>
+        <v>10.98045342843031</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.63895359763835</v>
+        <v>21.53833778010304</v>
       </c>
       <c r="C20">
-        <v>6.187989093485722</v>
+        <v>3.383752172526919</v>
       </c>
       <c r="D20">
-        <v>6.714704160053862</v>
+        <v>4.301552240909416</v>
       </c>
       <c r="E20">
-        <v>5.444191618250347</v>
+        <v>10.67628471199148</v>
       </c>
       <c r="F20">
-        <v>79.1935373039544</v>
+        <v>72.38383971842831</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.833078597456976</v>
+        <v>11.3086159347095</v>
       </c>
       <c r="K20">
-        <v>12.77152153821951</v>
+        <v>17.62992959314728</v>
       </c>
       <c r="L20">
-        <v>5.470441085540005</v>
+        <v>10.96589149544294</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.45558624449382</v>
+        <v>21.56802690921943</v>
       </c>
       <c r="C21">
-        <v>6.593981235707055</v>
+        <v>3.560796738178571</v>
       </c>
       <c r="D21">
-        <v>7.0439409486904</v>
+        <v>4.448304377423186</v>
       </c>
       <c r="E21">
-        <v>5.391452879585113</v>
+        <v>10.64048149964126</v>
       </c>
       <c r="F21">
-        <v>82.8798378912883</v>
+        <v>73.50723891427073</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.933450341840417</v>
+        <v>11.3231616129018</v>
       </c>
       <c r="K21">
-        <v>13.35758173283477</v>
+        <v>17.62837513878297</v>
       </c>
       <c r="L21">
-        <v>5.456501712112005</v>
+        <v>10.91928087188522</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.99339809326704</v>
+        <v>21.59336469153099</v>
       </c>
       <c r="C22">
-        <v>6.85488082631136</v>
+        <v>3.67171765872615</v>
       </c>
       <c r="D22">
-        <v>7.255749980399514</v>
+        <v>4.541072885911563</v>
       </c>
       <c r="E22">
-        <v>5.359392058645148</v>
+        <v>10.61822919393149</v>
       </c>
       <c r="F22">
-        <v>85.25952877654885</v>
+        <v>74.23506134341241</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.000747401428246</v>
+        <v>11.33303275587654</v>
       </c>
       <c r="K22">
-        <v>13.92598221671513</v>
+        <v>17.63216177656213</v>
       </c>
       <c r="L22">
-        <v>5.453078969288065</v>
+        <v>10.89054215134617</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.70596915898117</v>
+        <v>21.57929985661834</v>
       </c>
       <c r="C23">
-        <v>6.716001288406304</v>
+        <v>3.612955255812286</v>
       </c>
       <c r="D23">
-        <v>7.142994008626779</v>
+        <v>4.491851159903608</v>
       </c>
       <c r="E23">
-        <v>5.376279077747268</v>
+        <v>10.63000094307953</v>
       </c>
       <c r="F23">
-        <v>83.99205194186354</v>
+        <v>73.84723863789617</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.964665476678029</v>
+        <v>11.32773107501583</v>
       </c>
       <c r="K23">
-        <v>13.62283798345367</v>
+        <v>17.62970146513685</v>
       </c>
       <c r="L23">
-        <v>5.45436154308767</v>
+        <v>10.90572290868881</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.62567361048476</v>
+        <v>21.53795298593617</v>
       </c>
       <c r="C24">
-        <v>6.181270257284955</v>
+        <v>3.380777685609162</v>
       </c>
       <c r="D24">
-        <v>6.709262564322918</v>
+        <v>4.299101318706056</v>
       </c>
       <c r="E24">
-        <v>5.445093353253499</v>
+        <v>10.67688931736595</v>
       </c>
       <c r="F24">
-        <v>79.13277207736508</v>
+        <v>72.36538087437886</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.831464889418985</v>
+        <v>11.30838437264616</v>
       </c>
       <c r="K24">
-        <v>12.76204438389582</v>
+        <v>17.63003608363791</v>
       </c>
       <c r="L24">
-        <v>5.470759830160494</v>
+        <v>10.96668245174571</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.47790410543282</v>
+        <v>21.5189378834119</v>
       </c>
       <c r="C25">
-        <v>5.581957430931316</v>
+        <v>3.109816227802116</v>
       </c>
       <c r="D25">
-        <v>6.225517823555936</v>
+        <v>4.078043950034412</v>
       </c>
       <c r="E25">
-        <v>5.529277267856781</v>
+        <v>10.73241584290823</v>
       </c>
       <c r="F25">
-        <v>73.75934451307008</v>
+        <v>70.74425514754175</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.694289512719414</v>
+        <v>11.28909136799074</v>
       </c>
       <c r="K25">
-        <v>11.95047413025783</v>
+        <v>17.65100780803971</v>
       </c>
       <c r="L25">
-        <v>5.510656972415619</v>
+        <v>11.03985065355964</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52698182277445</v>
+        <v>14.64951671119169</v>
       </c>
       <c r="C2">
-        <v>3.023968074486533</v>
+        <v>5.118049361475617</v>
       </c>
       <c r="D2">
-        <v>3.904400907923463</v>
+        <v>5.854490649929821</v>
       </c>
       <c r="E2">
-        <v>10.77759118223927</v>
+        <v>5.599481303407354</v>
       </c>
       <c r="F2">
-        <v>69.53616316249635</v>
+        <v>69.68932995434398</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.27624633093289</v>
+        <v>7.59811698900486</v>
       </c>
       <c r="K2">
-        <v>17.68412328599214</v>
+        <v>11.37586466850032</v>
       </c>
       <c r="L2">
-        <v>11.10012192625136</v>
+        <v>5.556960375580537</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.54617254014096</v>
+        <v>14.10042070674887</v>
       </c>
       <c r="C3">
-        <v>2.974724868052053</v>
+        <v>4.788216924672247</v>
       </c>
       <c r="D3">
-        <v>3.780204195458183</v>
+        <v>5.593467771376167</v>
       </c>
       <c r="E3">
-        <v>10.81090140214564</v>
+        <v>5.652045451390875</v>
       </c>
       <c r="F3">
-        <v>68.71104351508677</v>
+        <v>66.86396847469874</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.26839204990293</v>
+        <v>7.535630378148161</v>
       </c>
       <c r="K3">
-        <v>17.71754574697365</v>
+        <v>11.00172919851795</v>
       </c>
       <c r="L3">
-        <v>11.14497077895294</v>
+        <v>5.597941156622043</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56471972667961</v>
+        <v>13.77022720511208</v>
       </c>
       <c r="C4">
-        <v>2.946699213255214</v>
+        <v>4.5777317877666</v>
       </c>
       <c r="D4">
-        <v>3.700840707651576</v>
+        <v>5.428452671766853</v>
       </c>
       <c r="E4">
-        <v>10.83268889960513</v>
+        <v>5.686739835423334</v>
       </c>
       <c r="F4">
-        <v>68.20216886422506</v>
+        <v>65.09847787822198</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.26399002304225</v>
+        <v>7.498497060604819</v>
       </c>
       <c r="K4">
-        <v>17.74346305139048</v>
+        <v>10.78000130592373</v>
       </c>
       <c r="L4">
-        <v>11.17448627261451</v>
+        <v>5.627553018566559</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.57397614888358</v>
+        <v>13.63757413895109</v>
       </c>
       <c r="C5">
-        <v>2.935857803289564</v>
+        <v>4.489911046447065</v>
       </c>
       <c r="D5">
-        <v>3.667736998744604</v>
+        <v>5.360019985107138</v>
       </c>
       <c r="E5">
-        <v>10.84190398344511</v>
+        <v>5.701481243362039</v>
       </c>
       <c r="F5">
-        <v>67.9943717979898</v>
+        <v>64.37178601624639</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.26230208162477</v>
+        <v>7.483662632153261</v>
       </c>
       <c r="K5">
-        <v>17.75537804697915</v>
+        <v>10.69173319355808</v>
       </c>
       <c r="L5">
-        <v>11.18701203763196</v>
+        <v>5.64069943183003</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.57561564859246</v>
+        <v>13.61566695564159</v>
       </c>
       <c r="C6">
-        <v>2.934093227693434</v>
+        <v>4.475203781922028</v>
       </c>
       <c r="D6">
-        <v>3.662194687350429</v>
+        <v>5.348585373755569</v>
       </c>
       <c r="E6">
-        <v>10.84345448954115</v>
+        <v>5.703965328227675</v>
       </c>
       <c r="F6">
-        <v>67.95984553633438</v>
+        <v>64.2506981954966</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.26202820225961</v>
+        <v>7.481217015568663</v>
       </c>
       <c r="K6">
-        <v>17.75743816180599</v>
+        <v>10.67720477606577</v>
       </c>
       <c r="L6">
-        <v>11.18912202337118</v>
+        <v>5.642946468057812</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5648376899278</v>
+        <v>13.7684302773153</v>
       </c>
       <c r="C7">
-        <v>2.94655062724572</v>
+        <v>4.576555743202135</v>
       </c>
       <c r="D7">
-        <v>3.700397320412901</v>
+        <v>5.427534560341287</v>
       </c>
       <c r="E7">
-        <v>10.83281181386313</v>
+        <v>5.686936207594606</v>
       </c>
       <c r="F7">
-        <v>68.19936798461718</v>
+        <v>65.08870606008166</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.26396682978006</v>
+        <v>7.498295808916282</v>
       </c>
       <c r="K7">
-        <v>17.74361826586571</v>
+        <v>10.77880233230963</v>
       </c>
       <c r="L7">
-        <v>11.17465318252005</v>
+        <v>5.627725995764624</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.53219366327373</v>
+        <v>14.45883305763942</v>
       </c>
       <c r="C8">
-        <v>3.006545158122624</v>
+        <v>5.005948166088147</v>
       </c>
       <c r="D8">
-        <v>3.862233136271364</v>
+        <v>5.765475937220088</v>
       </c>
       <c r="E8">
-        <v>10.78879999072991</v>
+        <v>5.61709981904519</v>
       </c>
       <c r="F8">
-        <v>69.25221172474714</v>
+        <v>68.72177414898212</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.27345099982036</v>
+        <v>7.576307724490361</v>
       </c>
       <c r="K8">
-        <v>17.69452561918748</v>
+        <v>11.2452490076521</v>
       </c>
       <c r="L8">
-        <v>11.11517557995334</v>
+        <v>5.570142425457822</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.52191954814764</v>
+        <v>15.86211764593256</v>
       </c>
       <c r="C9">
-        <v>3.2038286111617</v>
+        <v>5.787156212187971</v>
       </c>
       <c r="D9">
-        <v>4.154229233018861</v>
+        <v>6.39071348535169</v>
       </c>
       <c r="E9">
-        <v>10.71304731982904</v>
+        <v>5.499622061415772</v>
       </c>
       <c r="F9">
-        <v>71.2929266933364</v>
+        <v>75.5872678688189</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.29537928146186</v>
+        <v>7.739700435086075</v>
       </c>
       <c r="K9">
-        <v>17.64119333070693</v>
+        <v>12.22037729842651</v>
       </c>
       <c r="L9">
-        <v>11.0142114707339</v>
+        <v>5.494451627858379</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.54716606557558</v>
+        <v>16.91752457196668</v>
       </c>
       <c r="C10">
-        <v>3.445411907778826</v>
+        <v>6.328006777991231</v>
       </c>
       <c r="D10">
-        <v>4.352469972263616</v>
+        <v>6.82816659519321</v>
       </c>
       <c r="E10">
-        <v>10.66377474212559</v>
+        <v>5.425613722852859</v>
       </c>
       <c r="F10">
-        <v>72.76961114860046</v>
+        <v>80.46184716421858</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.31351182643871</v>
+        <v>7.867066774530683</v>
       </c>
       <c r="K10">
-        <v>17.62832200886975</v>
+        <v>12.97072980562266</v>
       </c>
       <c r="L10">
-        <v>10.94955415014473</v>
+        <v>5.464450347110105</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.56575678325919</v>
+        <v>17.40243482330781</v>
       </c>
       <c r="C11">
-        <v>3.549603523146622</v>
+        <v>6.567944601708592</v>
       </c>
       <c r="D11">
-        <v>4.438977206417737</v>
+        <v>7.022808584834101</v>
       </c>
       <c r="E11">
-        <v>10.64273455817717</v>
+        <v>5.394731323846456</v>
       </c>
       <c r="F11">
-        <v>73.43480147946703</v>
+        <v>82.64271930576624</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.32219778337085</v>
+        <v>7.926850210799463</v>
       </c>
       <c r="K11">
-        <v>17.62819591828743</v>
+        <v>13.3192516356992</v>
       </c>
       <c r="L11">
-        <v>10.92220065632671</v>
+        <v>5.457081083017791</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.57381518127434</v>
+        <v>17.58675625900407</v>
       </c>
       <c r="C12">
-        <v>3.588237162318769</v>
+        <v>6.658031839485449</v>
       </c>
       <c r="D12">
-        <v>4.471197135727511</v>
+        <v>7.095932856726546</v>
       </c>
       <c r="E12">
-        <v>10.63496396522376</v>
+        <v>5.383448667386736</v>
       </c>
       <c r="F12">
-        <v>73.68561018233571</v>
+        <v>83.46347307081116</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.32554956237788</v>
+        <v>7.94977792092213</v>
       </c>
       <c r="K12">
-        <v>17.62897218307044</v>
+        <v>13.49609611659577</v>
       </c>
       <c r="L12">
-        <v>10.91213828440935</v>
+        <v>5.455260107312408</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.57203442844455</v>
+        <v>17.54702778663976</v>
       </c>
       <c r="C13">
-        <v>3.579953257183808</v>
+        <v>6.638662441933017</v>
       </c>
       <c r="D13">
-        <v>4.464282095176294</v>
+        <v>7.080209318333952</v>
       </c>
       <c r="E13">
-        <v>10.63662875728736</v>
+        <v>5.385860073527072</v>
       </c>
       <c r="F13">
-        <v>73.63164448069628</v>
+        <v>83.28693151188055</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.32482491782295</v>
+        <v>7.944826756751433</v>
       </c>
       <c r="K13">
-        <v>17.62876835703995</v>
+        <v>13.45372092699907</v>
       </c>
       <c r="L13">
-        <v>10.91429224562158</v>
+        <v>5.455608030284933</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.56639936350234</v>
+        <v>17.41758490590157</v>
       </c>
       <c r="C14">
-        <v>3.552798401456598</v>
+        <v>6.575370949997712</v>
       </c>
       <c r="D14">
-        <v>4.441638805175368</v>
+        <v>7.02883594304709</v>
       </c>
       <c r="E14">
-        <v>10.64209132546392</v>
+        <v>5.393794767878368</v>
       </c>
       <c r="F14">
-        <v>73.45545819194629</v>
+        <v>82.7103438706107</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.32247228352154</v>
+        <v>7.928730545866405</v>
       </c>
       <c r="K14">
-        <v>17.62824326911458</v>
+        <v>13.33017460603643</v>
       </c>
       <c r="L14">
-        <v>10.92136689251632</v>
+        <v>5.456911432211613</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.56308024331099</v>
+        <v>17.33838904767288</v>
       </c>
       <c r="C15">
-        <v>3.53605827679561</v>
+        <v>6.536505917371321</v>
       </c>
       <c r="D15">
-        <v>4.427698729417267</v>
+        <v>6.997293917108893</v>
       </c>
       <c r="E15">
-        <v>10.64546292259101</v>
+        <v>5.398708997234917</v>
       </c>
       <c r="F15">
-        <v>73.34739364873704</v>
+        <v>82.35651109772355</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.32103936966248</v>
+        <v>7.918909557934859</v>
       </c>
       <c r="K15">
-        <v>17.62802894155954</v>
+        <v>13.2730978152581</v>
       </c>
       <c r="L15">
-        <v>10.92573883033895</v>
+        <v>5.457838167219633</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.54609385001092</v>
+        <v>16.88593066419452</v>
       </c>
       <c r="C16">
-        <v>3.43848781927904</v>
+        <v>6.312212195979448</v>
       </c>
       <c r="D16">
-        <v>4.346741694147365</v>
+        <v>6.815362128279341</v>
       </c>
       <c r="E16">
-        <v>10.66517735624739</v>
+        <v>5.427688932625547</v>
       </c>
       <c r="F16">
-        <v>72.72599524839266</v>
+        <v>80.31859677283715</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.31295295480438</v>
+        <v>7.863198854558713</v>
       </c>
       <c r="K16">
-        <v>17.62844556435533</v>
+        <v>12.94809831310769</v>
       </c>
       <c r="L16">
-        <v>10.9513831768762</v>
+        <v>5.46506384702817</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.53749124913137</v>
+        <v>16.60958219109453</v>
       </c>
       <c r="C17">
-        <v>3.377169094787589</v>
+        <v>6.173123429739371</v>
       </c>
       <c r="D17">
-        <v>4.296128578311471</v>
+        <v>6.702664836758931</v>
       </c>
       <c r="E17">
-        <v>10.67762295251331</v>
+        <v>5.446187997505627</v>
       </c>
       <c r="F17">
-        <v>72.34300574043628</v>
+        <v>79.05910455578378</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.30810401767048</v>
+        <v>7.829510356924659</v>
       </c>
       <c r="K17">
-        <v>17.63016885814851</v>
+        <v>12.75056330321346</v>
       </c>
       <c r="L17">
-        <v>10.96764237662603</v>
+        <v>5.471150158126732</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.53321237915288</v>
+        <v>16.45108272420351</v>
       </c>
       <c r="C18">
-        <v>3.34136311495345</v>
+        <v>6.092542174663182</v>
       </c>
       <c r="D18">
-        <v>4.266672007709356</v>
+        <v>6.637430890443061</v>
       </c>
       <c r="E18">
-        <v>10.68491071602453</v>
+        <v>5.457089476281234</v>
       </c>
       <c r="F18">
-        <v>72.12211101564753</v>
+        <v>78.33121474657153</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.30535622398139</v>
+        <v>7.810305564919269</v>
       </c>
       <c r="K18">
-        <v>17.63169933834635</v>
+        <v>12.63761969518128</v>
       </c>
       <c r="L18">
-        <v>10.97718810256054</v>
+        <v>5.475237444970841</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.53187863152725</v>
+        <v>16.3974951479661</v>
       </c>
       <c r="C19">
-        <v>3.329147628686373</v>
+        <v>6.065155992031281</v>
       </c>
       <c r="D19">
-        <v>4.256639557868513</v>
+        <v>6.615271616163408</v>
       </c>
       <c r="E19">
-        <v>10.68740047215113</v>
+        <v>5.460825085086261</v>
       </c>
       <c r="F19">
-        <v>72.0472195599708</v>
+        <v>78.08416608943379</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.30443295081869</v>
+        <v>7.803832009299333</v>
       </c>
       <c r="K19">
-        <v>17.6323101391967</v>
+        <v>12.59949457441303</v>
       </c>
       <c r="L19">
-        <v>10.98045342843031</v>
+        <v>5.476720147956669</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53833778010304</v>
+        <v>16.63895359763829</v>
       </c>
       <c r="C20">
-        <v>3.383752172526919</v>
+        <v>6.187989093486116</v>
       </c>
       <c r="D20">
-        <v>4.301552240909416</v>
+        <v>6.714704160053999</v>
       </c>
       <c r="E20">
-        <v>10.67628471199148</v>
+        <v>5.444191618250302</v>
       </c>
       <c r="F20">
-        <v>72.38383971842831</v>
+        <v>79.19353730395508</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.3086159347095</v>
+        <v>7.83307859745705</v>
       </c>
       <c r="K20">
-        <v>17.62992959314728</v>
+        <v>12.77152153821942</v>
       </c>
       <c r="L20">
-        <v>10.96589149544294</v>
+        <v>5.470441085539863</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.56802690921943</v>
+        <v>17.45558624449388</v>
       </c>
       <c r="C21">
-        <v>3.560796738178571</v>
+        <v>6.593981235706621</v>
       </c>
       <c r="D21">
-        <v>4.448304377423186</v>
+        <v>7.043940948690279</v>
       </c>
       <c r="E21">
-        <v>10.64048149964126</v>
+        <v>5.39145287958512</v>
       </c>
       <c r="F21">
-        <v>73.50723891427073</v>
+        <v>82.87983789128813</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.3231616129018</v>
+        <v>7.933450341840373</v>
       </c>
       <c r="K21">
-        <v>17.62837513878297</v>
+        <v>13.35758173283481</v>
       </c>
       <c r="L21">
-        <v>10.91928087188522</v>
+        <v>5.45650171211215</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.59336469153099</v>
+        <v>17.99339809326705</v>
       </c>
       <c r="C22">
-        <v>3.67171765872615</v>
+        <v>6.854880826311509</v>
       </c>
       <c r="D22">
-        <v>4.541072885911563</v>
+        <v>7.255749980399556</v>
       </c>
       <c r="E22">
-        <v>10.61822919393149</v>
+        <v>5.359392058645032</v>
       </c>
       <c r="F22">
-        <v>74.23506134341241</v>
+        <v>85.25952877654834</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.33303275587654</v>
+        <v>8.000747401428242</v>
       </c>
       <c r="K22">
-        <v>17.63216177656213</v>
+        <v>13.92598221671512</v>
       </c>
       <c r="L22">
-        <v>10.89054215134617</v>
+        <v>5.453078969288031</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.57929985661834</v>
+        <v>17.70596915898119</v>
       </c>
       <c r="C23">
-        <v>3.612955255812286</v>
+        <v>6.716001288405969</v>
       </c>
       <c r="D23">
-        <v>4.491851159903608</v>
+        <v>7.142994008626793</v>
       </c>
       <c r="E23">
-        <v>10.63000094307953</v>
+        <v>5.376279077747348</v>
       </c>
       <c r="F23">
-        <v>73.84723863789617</v>
+        <v>83.99205194186338</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.32773107501583</v>
+        <v>7.964665476678062</v>
       </c>
       <c r="K23">
-        <v>17.62970146513685</v>
+        <v>13.62283798345363</v>
       </c>
       <c r="L23">
-        <v>10.90572290868881</v>
+        <v>5.454361543087745</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.53795298593617</v>
+        <v>16.6256736104848</v>
       </c>
       <c r="C24">
-        <v>3.380777685609162</v>
+        <v>6.181270257284915</v>
       </c>
       <c r="D24">
-        <v>4.299101318706056</v>
+        <v>6.709262564322879</v>
       </c>
       <c r="E24">
-        <v>10.67688931736595</v>
+        <v>5.445093353253399</v>
       </c>
       <c r="F24">
-        <v>72.36538087437886</v>
+        <v>79.13277207736449</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.30838437264616</v>
+        <v>7.831464889418953</v>
       </c>
       <c r="K24">
-        <v>17.63003608363791</v>
+        <v>12.76204438389588</v>
       </c>
       <c r="L24">
-        <v>10.96668245174571</v>
+        <v>5.470759830160502</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.5189378834119</v>
+        <v>15.47790410543273</v>
       </c>
       <c r="C25">
-        <v>3.109816227802116</v>
+        <v>5.581957430930992</v>
       </c>
       <c r="D25">
-        <v>4.078043950034412</v>
+        <v>6.225517823556172</v>
       </c>
       <c r="E25">
-        <v>10.73241584290823</v>
+        <v>5.529277267856622</v>
       </c>
       <c r="F25">
-        <v>70.74425514754175</v>
+        <v>73.75934451307033</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.28909136799074</v>
+        <v>7.694289512719374</v>
       </c>
       <c r="K25">
-        <v>17.65100780803971</v>
+        <v>11.95047413025779</v>
       </c>
       <c r="L25">
-        <v>11.03985065355964</v>
+        <v>5.510656972415586</v>
       </c>
       <c r="M25">
         <v>0</v>
